--- a/Projektdokumentation/Soll_Analyse/Projektplanung/1_Projektstrukturplan/src/Projektstrukturplan_OnlyEpiks.xlsx
+++ b/Projektdokumentation/Soll_Analyse/Projektplanung/1_Projektstrukturplan/src/Projektstrukturplan_OnlyEpiks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eigene Dokumente\Berufsschule\Anwendungsentwicklung\Jahr 2\Mittelstufenprojekt\mp_anwen_scrumiverse\Projektdokumentation\Soll_Analyse\Projektplanung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/STUFF/Dokumente/Scrumiverse/mp_anwen_scrumiverse/Projektdokumentation/Soll_Analyse/Projektplanung/1_Projektstrukturplan/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t xml:space="preserve">SP001 </t>
   </si>
@@ -123,13 +123,7 @@
     <t>SPXXX</t>
   </si>
   <si>
-    <t>USXXX</t>
-  </si>
-  <si>
     <t>Sprint</t>
-  </si>
-  <si>
-    <t>User Story</t>
   </si>
   <si>
     <t>Task Detailansicht (fort.)</t>
@@ -294,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,9 +325,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,10 +332,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2992,19 +2987,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3013,7 +3008,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3022,18 +3017,18 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3042,22 +3037,20 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -3067,21 +3060,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10"/>
       <c r="C7" s="1"/>
       <c r="D7" s="11"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3090,7 +3081,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3099,7 +3090,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3108,7 +3099,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3117,7 +3108,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3126,7 +3117,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3135,7 +3126,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3144,7 +3135,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3153,7 +3144,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3162,7 +3153,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3171,7 +3162,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3180,7 +3171,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3189,7 +3180,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3198,7 +3189,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3207,7 +3198,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3216,7 +3207,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3225,7 +3216,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3234,7 +3225,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3243,7 +3234,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3252,7 +3243,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3263,7 +3254,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3279,21 +3270,21 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3304,7 +3295,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
         <v>23</v>
@@ -3317,7 +3308,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3327,7 +3318,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -3340,7 +3331,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -3353,7 +3344,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3364,7 +3355,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -3377,7 +3368,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -3390,7 +3381,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3401,7 +3392,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -3414,7 +3405,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
@@ -3427,7 +3418,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3438,7 +3429,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -3451,7 +3442,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -3464,7 +3455,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3475,7 +3466,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3486,7 +3477,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3497,7 +3488,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3508,7 +3499,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3519,7 +3510,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3530,7 +3521,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3541,7 +3532,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3574,13 +3565,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3591,7 +3582,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3604,7 +3595,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -3617,7 +3608,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
@@ -3628,7 +3619,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3639,7 +3630,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -3654,7 +3645,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
@@ -3669,7 +3660,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3680,7 +3671,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
@@ -3695,7 +3686,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -3710,7 +3701,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3721,7 +3712,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3732,7 +3723,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3743,7 +3734,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3754,7 +3745,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3765,7 +3756,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3776,7 +3767,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3787,7 +3778,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3798,7 +3789,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3809,7 +3800,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3820,7 +3811,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3831,7 +3822,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3842,7 +3833,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3853,7 +3844,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3864,7 +3855,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3894,14 +3885,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3910,7 +3901,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -3921,7 +3912,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -3932,7 +3923,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
@@ -3941,7 +3932,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3950,7 +3941,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
@@ -3965,7 +3956,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -3980,13 +3971,13 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>2</v>
@@ -4001,7 +3992,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -4016,13 +4007,13 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>2</v>
@@ -4037,7 +4028,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -4048,11 +4039,11 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4061,7 +4052,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>2</v>
@@ -4076,7 +4067,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
@@ -4090,7 +4081,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4099,7 +4090,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4108,7 +4099,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4117,7 +4108,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4126,7 +4117,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4135,7 +4126,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4168,14 +4159,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4184,7 +4175,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4194,7 +4185,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -4205,7 +4196,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
@@ -4214,7 +4205,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4223,7 +4214,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>2</v>
@@ -4238,22 +4229,22 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4262,7 +4253,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>2</v>
@@ -4277,7 +4268,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -4292,12 +4283,12 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>2</v>
@@ -4312,10 +4303,10 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="5" t="s">
@@ -4323,11 +4314,11 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4336,7 +4327,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="7" t="s">
         <v>2</v>
@@ -4349,20 +4340,20 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4371,7 +4362,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4380,7 +4371,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4389,7 +4380,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4398,7 +4389,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4427,17 +4418,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4448,7 +4439,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -4461,7 +4452,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -4474,7 +4465,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
@@ -4485,7 +4476,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4496,70 +4487,70 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4570,7 +4561,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4581,7 +4572,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4592,7 +4583,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4603,7 +4594,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4614,7 +4605,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4625,7 +4616,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4636,7 +4627,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4647,7 +4638,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4658,7 +4649,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4669,7 +4660,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4680,7 +4671,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4691,7 +4682,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4702,7 +4693,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4713,7 +4704,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
